--- a/StructureDefinition-registro-atencion.xlsx
+++ b/StructureDefinition-registro-atencion.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T15:47:06-04:00</t>
+    <t>2023-06-30T18:27:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-registro-atencion.xlsx
+++ b/StructureDefinition-registro-atencion.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$80</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="496">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T18:27:12-04:00</t>
+    <t>2023-09-13T17:11:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -146,6 +146,10 @@
     <t>An interaction between a patient and healthcare provider(s) for the purpose of providing healthcare service(s) or assessing the health status of a patient.  Encounter is primarily used to record information about the actual activities that occurred, where Appointment is used to record planned activities.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -381,16 +385,16 @@
     <t>planned | in-progress | on-hold | discharged | completed | cancelled | discontinued | entered-in-error | unknown</t>
   </si>
   <si>
-    <t>The current state of the encounter (not the state of the patient within the encounter - that is subjectState).</t>
+    <t>Status del encuentro de urgencia</t>
   </si>
   <si>
     <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
   </si>
   <si>
-    <t>Current state of the encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-status|5.0.0</t>
+    <t>Códigos dados por el estándar, traducción en mapeo</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -412,16 +416,13 @@
 </t>
   </si>
   <si>
-    <t>Classification of patient encounter context - e.g. Inpatient, outpatient</t>
-  </si>
-  <si>
-    <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Classification of the encounter.</t>
+    <t>Indicación de la clase de encuentro</t>
+  </si>
+  <si>
+    <t>Clase de encuentro basado en el Value Set propuesto por el estándar</t>
+  </si>
+  <si>
+    <t>Códigos sugeridos por el estándar</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/encounter-class</t>
@@ -434,6 +435,228 @@
   </si>
   <si>
     <t>PV1-2</t>
+  </si>
+  <si>
+    <t>Encounter.class.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Encounter.class.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Encounter.class.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Encounter.class.coding.id</t>
+  </si>
+  <si>
+    <t>Encounter.class.coding.extension</t>
+  </si>
+  <si>
+    <t>Encounter.class.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>Encounter.class.coding.version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>Encounter.class.coding.code</t>
+  </si>
+  <si>
+    <t>Código que describe encuentro de Urgencia</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>EMER</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cod-1
+</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>Encounter.class.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>Encounter.class.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>Encounter.class.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Encounter.priority</t>
@@ -506,9 +729,6 @@
     <t>http://hl7.org/fhir/ValueSet/service-type</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>PV1-10</t>
   </si>
   <si>
@@ -519,7 +739,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(https://hospitallaflorida.cl/fhir/hlfhosp/StructureDefinition/PacienteHLF)
 </t>
   </si>
   <si>
@@ -667,10 +887,10 @@
 </t>
   </si>
   <si>
-    <t>List of participants involved in the encounter</t>
-  </si>
-  <si>
-    <t>The list of people responsible for providing the service.</t>
+    <t>Participante clínico asociado a la atención</t>
+  </si>
+  <si>
+    <t>Definición del Médico asociado a la atención</t>
   </si>
   <si>
     <t>Any Patient or Group present in the participation.actor must also be the subject, though the subject may be absent from the participation.actor for cases where the patient (or group) is not present, such as during a case review conference.</t>
@@ -692,30 +912,7 @@
     <t>Encounter.participant.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Encounter.participant.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Encounter.participant.modifierExtension</t>
@@ -788,7 +985,7 @@
     <t>Encounter.participant.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|RelatedPerson|Practitioner|PractitionerRole|Device|HealthcareService)
+    <t xml:space="preserve">Reference(Practitioner)
 </t>
   </si>
   <si>
@@ -889,10 +1086,10 @@
 </t>
   </si>
   <si>
-    <t>The planned start date/time (or admission date) of the encounter</t>
-  </si>
-  <si>
-    <t>The planned start date/time (or admission date) of the encounter.</t>
+    <t>Día y hora de inicio del ingreso</t>
+  </si>
+  <si>
+    <t>Día y hora en formato FHIR</t>
   </si>
   <si>
     <t>PV2-8</t>
@@ -901,10 +1098,7 @@
     <t>Encounter.plannedEndDate</t>
   </si>
   <si>
-    <t>The planned end date/time (or discharge date) of the encounter</t>
-  </si>
-  <si>
-    <t>The planned end date/time (or discharge date) of the encounter.</t>
+    <t>Día y hora de fin del ingreso</t>
   </si>
   <si>
     <t>PV2-9</t>
@@ -990,6 +1184,9 @@
     <t>Reason the encounter takes place, expressed as a code or a reference to another resource. For admissions, this can be used for a coded admission diagnosis.</t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
     <t>Reason why the encounter takes place.</t>
   </si>
   <si>
@@ -1011,10 +1208,7 @@
     <t>Encounter.diagnosis</t>
   </si>
   <si>
-    <t>The list of diagnosis relevant to this encounter</t>
-  </si>
-  <si>
-    <t>The list of diagnosis relevant to this encounter.</t>
+    <t>Lista de diagnósticos relevantes para el encuentro</t>
   </si>
   <si>
     <t>Also note that for the purpose of billing, the diagnoses are recorded in the account where they can be ranked appropriately for how the invoicing/claiming documentation needs to be prepared.</t>
@@ -1039,11 +1233,11 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(Condition)
+    <t xml:space="preserve">CodeableReference(https://hospitallaflorida.cl/fhir/hlfhosp/StructureDefinition/DiagnosticoCondHLf)
 </t>
   </si>
   <si>
-    <t>The diagnosis relevant to the encounter</t>
+    <t>El diagnóstico relevante</t>
   </si>
   <si>
     <t>The coded diagnosis or a reference to a Condition (with other resources referenced in the evidence.detail), the use property will indicate the purpose of this specific diagnosis.</t>
@@ -1706,7 +1900,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN69"/>
+  <dimension ref="A1:AN80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1715,15 +1909,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.8828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.8828125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.5078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.42578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1731,28 +1925,28 @@
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="72.99609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.1875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="1.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.8828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.2265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.75" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="9.2890625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="23.91015625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="19.25390625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="89.546875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="185.1328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.3203125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="18.68359375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="88.7421875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="187.74609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1852,16 +2046,16 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>38</v>
@@ -1869,10 +2063,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1883,7 +2077,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1892,19 +2086,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1954,13 +2148,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1983,10 +2177,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1997,7 +2191,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2006,16 +2200,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2066,19 +2260,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2095,10 +2289,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2109,28 +2303,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2180,19 +2374,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2209,10 +2403,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2223,7 +2417,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2235,16 +2429,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2270,13 +2464,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2294,19 +2488,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2323,21 +2517,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2349,16 +2543,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2408,19 +2602,19 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -2429,7 +2623,7 @@
         <v>38</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>38</v>
@@ -2437,14 +2631,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2463,16 +2657,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2522,7 +2716,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2531,7 +2725,7 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>38</v>
@@ -2543,7 +2737,7 @@
         <v>38</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>38</v>
@@ -2551,14 +2745,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2577,16 +2771,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2636,7 +2830,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2648,7 +2842,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2657,7 +2851,7 @@
         <v>38</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>38</v>
@@ -2665,14 +2859,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2685,25 +2879,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2752,7 +2946,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2764,7 +2958,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2773,7 +2967,7 @@
         <v>38</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>38</v>
@@ -2781,10 +2975,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2804,16 +2998,16 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2864,7 +3058,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -2876,27 +3070,27 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2904,31 +3098,31 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2954,13 +3148,13 @@
         <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>38</v>
@@ -2978,39 +3172,39 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3018,28 +3212,28 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3066,7 +3260,7 @@
         <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="Y12" t="s" s="2">
         <v>128</v>
@@ -3090,7 +3284,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -3102,7 +3296,7 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -3133,7 +3327,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -3145,7 +3339,7 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>134</v>
@@ -3178,67 +3372,67 @@
         <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AG13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI13" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="AJ13" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AM13" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="AN13" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3254,19 +3448,19 @@
         <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3292,31 +3486,31 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
@@ -3328,27 +3522,27 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>150</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3356,31 +3550,35 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
       </c>
@@ -3404,13 +3602,13 @@
         <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>38</v>
@@ -3440,38 +3638,38 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -3480,20 +3678,18 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3542,50 +3738,50 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>166</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -3597,16 +3793,16 @@
         <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3632,43 +3828,43 @@
         <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -3677,7 +3873,7 @@
         <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>38</v>
@@ -3685,10 +3881,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3699,7 +3895,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -3708,19 +3904,23 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
       </c>
@@ -3768,50 +3968,50 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -3820,18 +4020,20 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -3880,39 +4082,39 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>38</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3923,7 +4125,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3932,19 +4134,21 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>38</v>
       </c>
@@ -3953,7 +4157,7 @@
         <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>38</v>
@@ -3992,19 +4196,19 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
@@ -4013,18 +4217,18 @@
         <v>38</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>38</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4035,7 +4239,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -4044,21 +4248,21 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
       </c>
@@ -4106,39 +4310,39 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>38</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4149,7 +4353,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4158,19 +4362,23 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>38</v>
       </c>
@@ -4218,39 +4426,39 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4261,7 +4469,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4270,21 +4478,23 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>38</v>
       </c>
@@ -4332,39 +4542,39 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4375,7 +4585,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -4387,13 +4597,13 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>214</v>
+        <v>125</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4420,13 +4630,13 @@
         <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>38</v>
@@ -4444,43 +4654,43 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>38</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4496,19 +4706,19 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4534,13 +4744,13 @@
         <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>38</v>
@@ -4558,7 +4768,7 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -4570,63 +4780,59 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>38</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="N26" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>38</v>
       </c>
@@ -4650,13 +4856,13 @@
         <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>38</v>
@@ -4674,7 +4880,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
@@ -4686,38 +4892,38 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>38</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4726,19 +4932,19 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4764,63 +4970,63 @@
         <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>234</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>38</v>
+        <v>235</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4831,7 +5037,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4843,7 +5049,7 @@
         <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>125</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>239</v>
@@ -4851,7 +5057,9 @@
       <c r="M28" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -4876,13 +5084,13 @@
         <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>38</v>
@@ -4900,19 +5108,19 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
@@ -4921,18 +5129,18 @@
         <v>38</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>242</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4943,7 +5151,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -4952,20 +5160,18 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N29" t="s" s="2">
         <v>247</v>
       </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>38</v>
@@ -5014,43 +5220,43 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>248</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>250</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5066,7 +5272,7 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>252</v>
@@ -5126,7 +5332,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -5138,19 +5344,19 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>256</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" hidden="true">
@@ -5189,9 +5395,7 @@
       <c r="M31" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5252,7 +5456,7 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -5261,7 +5465,7 @@
         <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>38</v>
@@ -5269,10 +5473,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5283,7 +5487,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5295,7 +5499,7 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>263</v>
@@ -5354,39 +5558,39 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>266</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AM32" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="AN32" t="s" s="2">
-        <v>269</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5397,7 +5601,7 @@
         <v>36</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5409,13 +5613,13 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5466,28 +5670,28 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>38</v>
+        <v>273</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>274</v>
@@ -5509,7 +5713,7 @@
         <v>36</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
@@ -5518,18 +5722,20 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5584,33 +5790,33 @@
         <v>36</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>58</v>
+        <v>280</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>38</v>
+        <v>282</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5621,7 +5827,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -5633,17 +5839,15 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5692,43 +5896,43 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>279</v>
+        <v>136</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>266</v>
+        <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>284</v>
+        <v>138</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>285</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5744,19 +5948,19 @@
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>287</v>
+        <v>96</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>288</v>
+        <v>140</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>289</v>
+        <v>98</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5806,7 +6010,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
@@ -5818,7 +6022,7 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
@@ -5827,7 +6031,7 @@
         <v>38</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -5835,42 +6039,46 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>214</v>
+        <v>95</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>215</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>38</v>
       </c>
@@ -5918,19 +6126,19 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>217</v>
+        <v>290</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
@@ -5939,7 +6147,7 @@
         <v>38</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -5954,7 +6162,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5970,19 +6178,19 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>95</v>
+        <v>292</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>97</v>
+        <v>294</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6008,13 +6216,13 @@
         <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>38</v>
+        <v>295</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>38</v>
@@ -6032,7 +6240,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -6041,66 +6249,62 @@
         <v>37</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>38</v>
+        <v>298</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>156</v>
+        <v>299</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>38</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>94</v>
+        <v>302</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>224</v>
+        <v>303</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>38</v>
       </c>
@@ -6148,19 +6352,19 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>226</v>
+        <v>301</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
@@ -6169,18 +6373,18 @@
         <v>38</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>91</v>
+        <v>305</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>38</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6191,7 +6395,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -6200,18 +6404,20 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>124</v>
+        <v>308</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>38</v>
@@ -6236,11 +6442,13 @@
         <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Y40" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z40" t="s" s="2">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>38</v>
@@ -6258,43 +6466,43 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>38</v>
+        <v>312</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>38</v>
+        <v>313</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>38</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>298</v>
+        <v>38</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6310,16 +6518,16 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6346,13 +6554,13 @@
         <v>38</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>302</v>
+        <v>38</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>38</v>
@@ -6370,7 +6578,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
@@ -6382,27 +6590,27 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6422,19 +6630,19 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>205</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6484,7 +6692,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -6496,7 +6704,7 @@
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
@@ -6505,7 +6713,7 @@
         <v>38</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>312</v>
+        <v>92</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6513,10 +6721,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6527,7 +6735,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -6539,15 +6747,17 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>215</v>
+        <v>327</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6596,53 +6806,53 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>217</v>
+        <v>326</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>38</v>
+        <v>330</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>156</v>
+        <v>332</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>38</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>38</v>
@@ -6651,17 +6861,15 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>94</v>
+        <v>335</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>95</v>
+        <v>336</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -6710,19 +6918,19 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>221</v>
+        <v>334</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
@@ -6731,54 +6939,50 @@
         <v>38</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>38</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>94</v>
+        <v>335</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>224</v>
+        <v>340</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>38</v>
       </c>
@@ -6826,19 +7030,19 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>226</v>
+        <v>339</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
@@ -6847,29 +7051,29 @@
         <v>38</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>38</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>317</v>
+        <v>38</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -6878,18 +7082,20 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>38</v>
@@ -6914,11 +7120,13 @@
         <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Y46" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z46" t="s" s="2">
-        <v>321</v>
+        <v>38</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>38</v>
@@ -6936,39 +7144,39 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>323</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6988,18 +7196,20 @@
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>124</v>
+        <v>276</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -7024,13 +7234,13 @@
         <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>327</v>
+        <v>38</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>328</v>
+        <v>38</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>38</v>
@@ -7048,7 +7258,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
@@ -7060,7 +7270,7 @@
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
@@ -7069,18 +7279,18 @@
         <v>38</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>329</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7091,7 +7301,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7103,17 +7313,15 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>331</v>
+        <v>165</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>332</v>
+        <v>134</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>38</v>
@@ -7162,19 +7370,19 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>330</v>
+        <v>136</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
@@ -7183,7 +7391,7 @@
         <v>38</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>335</v>
+        <v>138</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>38</v>
@@ -7191,14 +7399,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7217,20 +7425,18 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>337</v>
+        <v>96</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>338</v>
+        <v>140</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>38</v>
       </c>
@@ -7254,13 +7460,13 @@
         <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>341</v>
+        <v>38</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>342</v>
+        <v>38</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>38</v>
@@ -7278,7 +7484,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>336</v>
+        <v>144</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
@@ -7290,7 +7496,7 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
@@ -7299,22 +7505,22 @@
         <v>38</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>343</v>
+        <v>138</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>344</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7327,22 +7533,26 @@
         <v>38</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>38</v>
       </c>
@@ -7366,13 +7576,13 @@
         <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>348</v>
+        <v>38</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>349</v>
+        <v>38</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>38</v>
@@ -7390,7 +7600,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -7402,7 +7612,7 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
@@ -7411,18 +7621,18 @@
         <v>38</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>350</v>
+        <v>92</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>351</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7442,20 +7652,18 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>38</v>
@@ -7480,31 +7688,29 @@
         <v>38</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="Y51" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y51" s="2"/>
+      <c r="Z51" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
@@ -7516,7 +7722,7 @@
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
@@ -7525,10 +7731,10 @@
         <v>38</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>358</v>
+        <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>359</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" hidden="true">
@@ -7540,14 +7746,14 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>38</v>
+        <v>361</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -7556,20 +7762,18 @@
         <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>205</v>
+        <v>362</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7594,13 +7798,13 @@
         <v>38</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>38</v>
+        <v>366</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>38</v>
+        <v>367</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>38</v>
@@ -7624,33 +7828,33 @@
         <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>38</v>
+        <v>368</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>38</v>
+        <v>369</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>38</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7661,27 +7865,29 @@
         <v>36</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>215</v>
+        <v>373</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -7730,19 +7936,19 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>217</v>
+        <v>372</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
@@ -7751,7 +7957,7 @@
         <v>38</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>156</v>
+        <v>375</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>38</v>
@@ -7759,21 +7965,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -7785,17 +7991,15 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -7844,19 +8048,19 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
@@ -7865,7 +8069,7 @@
         <v>38</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>38</v>
@@ -7873,14 +8077,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>223</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7893,26 +8097,24 @@
         <v>38</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>38</v>
       </c>
@@ -7960,7 +8162,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -7972,7 +8174,7 @@
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
@@ -7981,7 +8183,7 @@
         <v>38</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>38</v>
@@ -7989,42 +8191,46 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>369</v>
+        <v>288</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>38</v>
       </c>
@@ -8072,19 +8278,19 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>368</v>
+        <v>290</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
@@ -8093,29 +8299,29 @@
         <v>38</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>371</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>38</v>
+        <v>380</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
@@ -8124,16 +8330,16 @@
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8160,13 +8366,11 @@
         <v>38</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>38</v>
+        <v>384</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>38</v>
@@ -8184,39 +8388,39 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>38</v>
+        <v>368</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>38</v>
+        <v>369</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>38</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8227,7 +8431,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>38</v>
@@ -8239,13 +8443,13 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8272,13 +8476,13 @@
         <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>127</v>
+        <v>365</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
@@ -8296,19 +8500,19 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
@@ -8317,18 +8521,18 @@
         <v>38</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>382</v>
+        <v>138</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8339,7 +8543,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8351,15 +8555,17 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>124</v>
+        <v>394</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>38</v>
@@ -8384,13 +8590,13 @@
         <v>38</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>387</v>
+        <v>38</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>388</v>
+        <v>38</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>38</v>
@@ -8408,19 +8614,19 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
@@ -8429,18 +8635,18 @@
         <v>38</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>156</v>
+        <v>398</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>389</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8451,7 +8657,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -8463,16 +8669,20 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>373</v>
+        <v>125</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>38</v>
       </c>
@@ -8496,13 +8706,13 @@
         <v>38</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>38</v>
+        <v>404</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>38</v>
+        <v>405</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>38</v>
@@ -8520,19 +8730,19 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
@@ -8541,18 +8751,18 @@
         <v>38</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>394</v>
+        <v>407</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8563,7 +8773,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>38</v>
@@ -8575,13 +8785,13 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8608,13 +8818,13 @@
         <v>38</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>136</v>
+        <v>365</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>38</v>
@@ -8632,19 +8842,19 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
@@ -8653,18 +8863,18 @@
         <v>38</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>401</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8687,16 +8897,16 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8722,13 +8932,13 @@
         <v>38</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>38</v>
+        <v>419</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>38</v>
+        <v>420</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>38</v>
@@ -8746,7 +8956,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
@@ -8758,7 +8968,7 @@
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
@@ -8767,18 +8977,18 @@
         <v>38</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>38</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8789,7 +8999,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
@@ -8801,15 +9011,17 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>215</v>
+        <v>424</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>38</v>
@@ -8858,19 +9070,19 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>217</v>
+        <v>423</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
@@ -8879,7 +9091,7 @@
         <v>38</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>156</v>
+        <v>427</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>38</v>
@@ -8887,21 +9099,21 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>38</v>
@@ -8913,17 +9125,15 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>38</v>
@@ -8972,19 +9182,19 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
@@ -8993,7 +9203,7 @@
         <v>38</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>38</v>
@@ -9001,14 +9211,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>223</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9021,26 +9231,24 @@
         <v>38</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>38</v>
       </c>
@@ -9088,7 +9296,7 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
@@ -9100,7 +9308,7 @@
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
@@ -9109,7 +9317,7 @@
         <v>38</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>38</v>
@@ -9117,42 +9325,46 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>411</v>
+        <v>95</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>412</v>
+        <v>288</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>38</v>
       </c>
@@ -9200,39 +9412,39 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>414</v>
+        <v>38</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>415</v>
+        <v>38</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>249</v>
+        <v>92</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>416</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9243,7 +9455,7 @@
         <v>36</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>38</v>
@@ -9255,17 +9467,15 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>38</v>
@@ -9290,13 +9500,13 @@
         <v>38</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>421</v>
+        <v>38</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>422</v>
+        <v>38</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>38</v>
@@ -9314,19 +9524,19 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
@@ -9335,18 +9545,18 @@
         <v>38</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>423</v>
+        <v>112</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>38</v>
+        <v>434</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9357,7 +9567,7 @@
         <v>36</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>38</v>
@@ -9369,17 +9579,15 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>124</v>
+        <v>436</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>38</v>
@@ -9404,13 +9612,13 @@
         <v>38</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>428</v>
+        <v>38</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>429</v>
+        <v>38</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>38</v>
@@ -9428,19 +9636,19 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>38</v>
@@ -9449,7 +9657,7 @@
         <v>38</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>38</v>
+        <v>439</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>38</v>
@@ -9457,10 +9665,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9471,7 +9679,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>38</v>
@@ -9483,13 +9691,13 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>238</v>
+        <v>125</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9516,13 +9724,13 @@
         <v>38</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>38</v>
+        <v>443</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>38</v>
+        <v>444</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>38</v>
@@ -9540,19 +9748,19 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>38</v>
@@ -9561,14 +9769,1258 @@
         <v>38</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>241</v>
+        <v>445</v>
       </c>
       <c r="AN69" t="s" s="2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN69">
+  <autoFilter ref="A1:AN80">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9578,7 +11030,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI68">
+  <conditionalFormatting sqref="A2:AI79">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
